--- a/biology/Histoire de la zoologie et de la botanique/Benjamin_Leadbeater/Benjamin_Leadbeater.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Benjamin_Leadbeater/Benjamin_Leadbeater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Leadbeater est un taxidermiste, un important négociant en histoire naturelle et un ornithologue britannique, né en 1760 et mort en 1837.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il tient une boutique au 19 Brewer Street, Piccadilly. Leadbeater fournit à l’occasion les muséums et emploie les services de nombreux naturalistes à travers le monde.
 Plusieurs espèces lui ont été dédiées comme le bucorve du Sud (Bucorvus leadbeateri) par Nicholas Aylward Vigors (1785-1840) en 1825, le cacatoès de Leadbeater (Cacatua leadbeateri) également par Vigors en 1831 ou le brillant à front violet (Heliodoxa leadbeateri) par Jules Bourcier (1797-1873).
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bo Beolens et Michael Watkins (2003). Whose Bird? Common Bird Names and the People They Commemorate. Yale University Press (New Haven et Londres).</t>
         </is>
